--- a/medicine/Mort/Grand_Froid/Grand_Froid.xlsx
+++ b/medicine/Mort/Grand_Froid/Grand_Froid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Froid est une comédie dramatique franco-belgo-polonaise réalisée par Gérard Pautonnier, sortie en 2017.
 Il s'agit de l'adaptation du premier roman de Joël Egloff Edmond Ganglion &amp; fils, publié en 1999.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une petite ville perdue au milieu de nulle part, le commerce de pompes funèbres d’Edmond Zweck bat de l’aile. L’entreprise ne compte plus que deux employés : Georges, le bras droit de Zweck, et Eddy, un jeune homme fraîchement arrivé dans le métier. Un beau matin, pourtant, un mort pointe son nez. L’espoir renaît. Georges 
 et Eddy sont chargés de mener le défunt jusqu’à sa dernière demeure. Mais, à la recherche du cimetière qui s’avère introuvable, le convoi funéraire s’égare et le voyage tourne au fiasco.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Grand Froid
 Réalisation : Gérard Pautonnier
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Pierre Bacri : Georges
 Arthur Dupont : Eddy
@@ -638,10 +656,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tournage
-Le film a été tourné en Pologne[1] ainsi qu'à Jemappes (Belgique).
-Musiques additionnelles[1]
-Mesparrow, On The Cliff, 2012
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné en Pologne ainsi qu'à Jemappes (Belgique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_Froid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_Froid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>À noter</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musiques additionnelles[1]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mesparrow, On The Cliff, 2012
 Onoff, Degré</t>
         </is>
       </c>
